--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-599276.5634041787</v>
+        <v>-573577.5243141092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.1615573</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9390371.564629348</v>
+        <v>9427797.707952663</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>394.2377892761851</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,10 +826,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>12.45063917238673</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1128872655202599</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.493319739234</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>165.4404135895448</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>25.28888815907895</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>254.0931201069083</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>100.1913453255716</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>344.9236425102488</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.57996550448171</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523203</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>61.44636558409545</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>44.04204191106002</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>94.21878984361631</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>214.3693806674596</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1661,13 +1661,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561524</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430777</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>170.2098356895123</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1856,10 +1856,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629674</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735226087</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773013</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112171</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765192</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>24.6270352077664</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>144.4937753855482</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>47.61404849749821</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976455</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432334</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934495</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432299</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>865.1083144706859</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>831.0062456945132</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>395.0964608689576</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>365.3621200676568</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048488</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048488</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134028</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301592</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312593</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271187</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208081</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.52789708112</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2057.305594398136</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1694.688644331963</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1289.833189742996</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>891.6132005751322</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>887.3674809151896</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1463.178981536728</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1356.72252037337</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1261.632231519924</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1167.511816846877</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1084.127978463039</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>998.7428887292228</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>957.0072365454353</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>983.0709097058929</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672105</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1307.629234672105</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1307.629234672105</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1307.629234672105</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1307.629234672105</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1313.824149286829</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297829</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2503.074219929904</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2556.791560472627</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2426.612916803229</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2250.276369803197</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2051.158851865197</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1865.836097598391</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1710.96866183727</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1584.482882616491</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>713.0812255390565</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>540.5195140222814</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>374.6415212238041</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>204.8835174745414</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>192.3071142701104</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>192.3071142701104</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048488</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048488</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>413.7430796963104</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>831.9529614642714</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2452.054223159912</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2461.005629322241</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.410212542856</v>
+        <v>2215.126182900696</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.410212542856</v>
+        <v>1936.693182153801</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.410212542856</v>
+        <v>1649.737674024231</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.410212542856</v>
+        <v>1377.711269610523</v>
       </c>
       <c r="X4" t="n">
-        <v>1271.018457876269</v>
+        <v>1132.319514943935</v>
       </c>
       <c r="Y4" t="n">
-        <v>1043.598787190377</v>
+        <v>904.8998442580437</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>789.5336382545983</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y5" t="n">
-        <v>381.2475145542517</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.8488427225424</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>774.8488427225424</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>608.9708499240651</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>966.6674614415294</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>966.6674614415294</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>966.6674614415294</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>966.6674614415294</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1258.135771352945</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C8" t="n">
-        <v>819.9932985363687</v>
+        <v>614.7581953941713</v>
       </c>
       <c r="D8" t="n">
-        <v>384.0835137108132</v>
+        <v>178.8484105686157</v>
       </c>
       <c r="E8" t="n">
-        <v>354.3491729095124</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>330.5221473591242</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>330.5221473591242</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39199280234046</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>476.2298908823983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>983.298033322219</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>983.298033322219</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>983.298033322219</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>983.298033322219</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281146</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720966</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474023</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474023</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474023</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474023</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474023</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2047.945120925461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>2032.843061545175</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1684.435341837853</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.710855613268</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993806</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959711</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.1757067515221</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1757067515221</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1757067515221</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>523.1757067515221</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>346.4686527132783</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>180.877377739106</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948047</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948047</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783546</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474023</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474023</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179395</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1868.100981477392</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1622.221535055847</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1622.221535055847</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1335.266026926277</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1063.239622512569</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>817.8478678459812</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.4281971600894</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1833.960820837483</v>
+        <v>1425.674697137133</v>
       </c>
       <c r="C11" t="n">
-        <v>1771.893784893952</v>
+        <v>987.532224320556</v>
       </c>
       <c r="D11" t="n">
-        <v>1335.984000068396</v>
+        <v>551.6224394950004</v>
       </c>
       <c r="E11" t="n">
-        <v>902.2092552266913</v>
+        <v>117.8476946532955</v>
       </c>
       <c r="F11" t="n">
-        <v>474.3418256358991</v>
+        <v>73.360783632023</v>
       </c>
       <c r="G11" t="n">
-        <v>72.94399425916299</v>
+        <v>73.360783632023</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916308</v>
+        <v>73.360783632023</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916308</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="J11" t="n">
         <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1539260867245</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1841.835855043867</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>2744.517784001011</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>3647.199712958154</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="O11" t="n">
-        <v>3647.199712958154</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="P11" t="n">
-        <v>3647.199712958154</v>
+        <v>3073.540777460797</v>
       </c>
       <c r="Q11" t="n">
-        <v>3647.199712958154</v>
+        <v>3620.039563419392</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958154</v>
+        <v>3647.19971295815</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141991</v>
+        <v>3563.547839141987</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.480612015029</v>
+        <v>3343.480612015026</v>
       </c>
       <c r="U11" t="n">
-        <v>3084.258309332046</v>
+        <v>3084.258309332043</v>
       </c>
       <c r="V11" t="n">
-        <v>3084.258309332046</v>
+        <v>3084.258309332043</v>
       </c>
       <c r="W11" t="n">
-        <v>2679.40285474308</v>
+        <v>2679.402854743076</v>
       </c>
       <c r="X11" t="n">
-        <v>2260.260391322391</v>
+        <v>2260.260391322387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2260.260391322391</v>
+        <v>1851.97426762204</v>
       </c>
     </row>
     <row r="12">
@@ -5100,25 +5100,25 @@
         <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336514</v>
+        <v>377.5689892336513</v>
       </c>
       <c r="E12" t="n">
-        <v>283.4485745606051</v>
+        <v>283.448574560605</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767667</v>
+        <v>200.0647361767666</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429506</v>
+        <v>114.6796464429505</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916308</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962067</v>
+        <v>99.0076674196206</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858331</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="K12" t="n">
         <v>1078.272039011557</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.6792003787782</v>
+        <v>1012.099980561419</v>
       </c>
       <c r="C13" t="n">
-        <v>769.1174888620031</v>
+        <v>839.538269044644</v>
       </c>
       <c r="D13" t="n">
-        <v>603.2394960635258</v>
+        <v>673.6602762461666</v>
       </c>
       <c r="E13" t="n">
-        <v>433.4814923142631</v>
+        <v>503.9022724969038</v>
       </c>
       <c r="F13" t="n">
-        <v>256.7744382760193</v>
+        <v>327.19521845866</v>
       </c>
       <c r="G13" t="n">
-        <v>256.7744382760193</v>
+        <v>161.6039434844877</v>
       </c>
       <c r="H13" t="n">
         <v>161.6039434844877</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916308</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949885</v>
+        <v>434.2821339949884</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629496</v>
+        <v>852.4920157629494</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943863</v>
+        <v>1311.975882943862</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327289</v>
+        <v>2173.903935327288</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.410829297631</v>
+        <v>2521.41082929763</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161962</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.603604161962</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.724157740417</v>
+        <v>2443.724157740418</v>
       </c>
       <c r="U13" t="n">
         <v>2165.291156993523</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.335648863953</v>
+        <v>1948.756429046594</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.309244450245</v>
+        <v>1676.730024632885</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.917489783657</v>
+        <v>1431.338269966298</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.497819097765</v>
+        <v>1203.918599280406</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5285,34 +5285,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423626</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5352,16 +5352,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.781058858859</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C16" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.411102930325</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.07304516795</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.205615577158</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423626</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993932</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>970.9960463903986</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>798.4343348736236</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>632.5563420751463</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258797</v>
+        <v>462.7983383258835</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>286.0912842876397</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134635</v>
+        <v>120.5000093134674</v>
       </c>
       <c r="H19" t="n">
-        <v>120.5000093134635</v>
+        <v>120.5000093134674</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5689,34 +5689,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,28 +5750,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2543.461783934674</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.028783187779</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5990,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>1039.550377927472</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2114.610344180331</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3271.658179390882</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
         <v>614.3171730324584</v>
@@ -6181,16 +6181,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.996046390395</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736199</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751427</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>632.5563420751427</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>455.8492880368989</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>290.2580130627265</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>150.3558387531011</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258799</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134637</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
         <v>1107.588885023173</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6938,28 +6938,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2627364873769</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7166,46 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428595</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428595</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998902</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832298</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7245,31 +7245,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080655</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716789</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463112</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385015</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882656</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7391,64 +7391,64 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
@@ -7482,31 +7482,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K42" t="n">
-        <v>1128.922221872865</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.922221872865</v>
+        <v>444.9088529677873</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.922221872865</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.922221872865</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="O42" t="n">
-        <v>1128.922221872865</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="P42" t="n">
-        <v>1128.922221872865</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7640,40 +7640,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080653</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716786</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463109</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850147</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882653</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7810,7 +7810,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7825,10 +7825,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,10 +7846,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>121.1234907850394</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.061749506061</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.257489509821653</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>655.061749506061</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>301.7064061932338</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>512.1900428685058</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332593</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685058</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685058</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920787</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685058</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679217</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,28 +8690,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>435.3083276511551</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>911.7999282395384</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>911.7999282395385</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>911.7999282395385</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359434</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9638,22 +9638,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10185,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662599</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,28 +10823,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497229</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>594.524649754585</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>324.5237132641535</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>372.3146825043154</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.5467133838243</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.28436272291292</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>69.71657238081428</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.355920853283933e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>113.8761173587616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>69.71657238081436</v>
+        <v>69.71657238081055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149878</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308167736</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>69.71657238081005</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.1593012355732</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>34.67467827192587</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-12</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>800802.8104159392</v>
+        <v>815002.3252532424</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>800802.8104159392</v>
+        <v>815768.61288514</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806211.1260826377</v>
+        <v>815768.61288514</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652764.2973817271</v>
+        <v>652764.2973817267</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831405.2964739872</v>
+        <v>831405.2964739874</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>831405.2964739873</v>
+        <v>831405.2964739872</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>831405.2964739873</v>
+        <v>831405.2964739872</v>
       </c>
     </row>
     <row r="12">
@@ -26317,10 +26317,10 @@
         <v>174247.8789643827</v>
       </c>
       <c r="D2" t="n">
-        <v>174247.8789643827</v>
+        <v>174247.8789643828</v>
       </c>
       <c r="E2" t="n">
-        <v>134437.4304700311</v>
+        <v>134437.430470031</v>
       </c>
       <c r="F2" t="n">
         <v>171228.7148446395</v>
@@ -26332,7 +26332,7 @@
         <v>171228.7148446395</v>
       </c>
       <c r="I2" t="n">
-        <v>171228.7148446395</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="J2" t="n">
         <v>171228.7148446394</v>
@@ -26344,16 +26344,16 @@
         <v>171228.7148446394</v>
       </c>
       <c r="M2" t="n">
-        <v>171228.7148446394</v>
+        <v>171228.7148446395</v>
       </c>
       <c r="N2" t="n">
         <v>174247.8789643828</v>
       </c>
       <c r="O2" t="n">
-        <v>174247.8789643824</v>
+        <v>174247.8789643828</v>
       </c>
       <c r="P2" t="n">
-        <v>174247.8789643824</v>
+        <v>174247.8789643827</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797197</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948789</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477392</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543122</v>
+        <v>72938.04361534395</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540554</v>
+        <v>105000.4827540558</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877638</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375019</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401225</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400284</v>
+        <v>60876.72976950135</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716031</v>
+        <v>88373.14763716057</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>167346.9247704306</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>191253.642096258</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>63940.95018941462</v>
+        <v>63940.95018941458</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904283</v>
@@ -26436,7 +26436,7 @@
         <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
+        <v>94325.77438500363</v>
+      </c>
+      <c r="O4" t="n">
         <v>94325.77438500365</v>
       </c>
-      <c r="O4" t="n">
-        <v>94325.77438500368</v>
-      </c>
       <c r="P4" t="n">
-        <v>94325.77438500365</v>
+        <v>94325.77438500363</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.3543699685</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640515</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696394</v>
+        <v>55437.43563696388</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.6147260897</v>
+      </c>
+      <c r="O5" t="n">
         <v>75515.61472608971</v>
       </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
-      </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233329.1826744164</v>
+        <v>-286080.6588557361</v>
       </c>
       <c r="C6" t="n">
-        <v>-91137.88201470641</v>
+        <v>-69251.08078588218</v>
       </c>
       <c r="D6" t="n">
-        <v>-109077.0885330543</v>
+        <v>-65227.73385693335</v>
       </c>
       <c r="E6" t="n">
-        <v>-104255.6757106596</v>
+        <v>-58185.23319087875</v>
       </c>
       <c r="F6" t="n">
-        <v>-92929.57798425126</v>
+        <v>-92952.80232363429</v>
       </c>
       <c r="G6" t="n">
-        <v>12070.90476980415</v>
+        <v>12047.68043042151</v>
       </c>
       <c r="H6" t="n">
-        <v>12070.90476980412</v>
+        <v>12047.68043042151</v>
       </c>
       <c r="I6" t="n">
-        <v>12070.90476980412</v>
+        <v>12047.68043042147</v>
       </c>
       <c r="J6" t="n">
-        <v>-98943.56057518613</v>
+        <v>-159345.2959573424</v>
       </c>
       <c r="K6" t="n">
-        <v>12070.9047698041</v>
+        <v>8842.559083046444</v>
       </c>
       <c r="L6" t="n">
-        <v>-10174.32249420816</v>
+        <v>12047.68043042145</v>
       </c>
       <c r="M6" t="n">
-        <v>-87513.47710419874</v>
+        <v>-48829.04933907986</v>
       </c>
       <c r="N6" t="n">
-        <v>-83966.65778387083</v>
+        <v>-83966.65778387112</v>
       </c>
       <c r="O6" t="n">
-        <v>4406.489853289022</v>
+        <v>4406.489853289415</v>
       </c>
       <c r="P6" t="n">
-        <v>4406.48985328908</v>
+        <v>4406.489853289342</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506061</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685058</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395384</v>
+        <v>911.7999282395376</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179595</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840138</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710327</v>
+        <v>244.2847216316807</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452065</v>
+        <v>366.4605751452077</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.061749506061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179595</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840138</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710327</v>
+        <v>244.2847216316807</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081842</v>
+        <v>307.7838677081852</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.061749506061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179595</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840138</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710327</v>
+        <v>244.2847216316807</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452065</v>
+        <v>366.4605751452077</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>20.71324951029726</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.4893443254746</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.307764691809</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>196.5432550408247</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>268.3206344988662</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.7970648891949</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>15.21302026266312</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>329.2456520677162</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>59.27961995309431</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.3204670273155</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-4.08504658571054e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-4.999111612618006e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.941143707682689e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>121.1234907850394</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.061749506061</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.257489509821653</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>655.061749506061</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>301.7064061932338</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>512.1900428685058</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332593</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685058</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685058</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920787</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685058</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35340,16 +35340,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679217</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>435.3083276511551</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>911.7999282395384</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>911.7999282395385</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>911.7999282395385</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359434</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36297,7 +36297,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36616,7 +36616,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662599</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497229</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,22 +37786,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>594.524649754585</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>324.5237132641535</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38178,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467886</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
         <v>480.3608287033061</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
